--- a/CCapsTools/ES2N - Requisitos Funcionais v4.0.xlsx
+++ b/CCapsTools/ES2N - Requisitos Funcionais v4.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Paula\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github Denilce\ES2N\CCapsTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39E81C-D047-4AC5-B427-ECC9AD0841B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA034B17-EBE1-47DC-B65A-30D2FE7520A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4ABF0B59-3EAA-4472-9014-1459B26A9A3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4ABF0B59-3EAA-4472-9014-1459B26A9A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -90,16 +90,10 @@
     <t>CCapsTools</t>
   </si>
   <si>
-    <t>Gerenciar Atividades</t>
-  </si>
-  <si>
     <t>Upload de Notas Fiscais</t>
   </si>
   <si>
     <t>RF09</t>
-  </si>
-  <si>
-    <t>Inscrever em Atividades</t>
   </si>
   <si>
     <t>Emitir Certificados</t>
@@ -372,9 +366,6 @@
     <t>Minhas Atividades</t>
   </si>
   <si>
-    <t>RF 18</t>
-  </si>
-  <si>
     <t>Permite ao aluno acessar e alterar e apagar as atividades salvas</t>
   </si>
   <si>
@@ -396,6 +387,15 @@
       </rPr>
       <t xml:space="preserve"> Chamar RF10</t>
     </r>
+  </si>
+  <si>
+    <t>RF18</t>
+  </si>
+  <si>
+    <t>Gerenciar Atividade</t>
+  </si>
+  <si>
+    <t>Inscrever em Atividade</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -569,17 +569,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -654,9 +643,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,6 +657,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,9 +952,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1003,7 +992,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1109,7 +1098,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1251,7 +1240,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1261,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3837308E-2BE3-4051-9282-618B7392BE50}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1318,81 +1307,81 @@
         <v>6</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
+      <c r="B8" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -1404,13 +1393,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -1422,19 +1411,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1442,19 +1431,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>76</v>
+      <c r="F14" s="24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -1462,49 +1451,49 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:6" ht="30.3" x14ac:dyDescent="0.3">
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -1513,101 +1502,101 @@
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>75</v>
+        <v>35</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="26"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1615,40 +1604,40 @@
     </row>
     <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="26"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1662,12 +1651,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1785,15 +1771,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1815,16 +1811,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>